--- a/team_specific_matrix/Missouri_B.xlsx
+++ b/team_specific_matrix/Missouri_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1952380952380952</v>
+        <v>0.2021466905187835</v>
       </c>
       <c r="C2">
-        <v>0.5761904761904761</v>
+        <v>0.5599284436493739</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007142857142857143</v>
+        <v>0.005366726296958855</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1452380952380952</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0761904761904762</v>
+        <v>0.07871198568872988</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004</v>
+        <v>0.003058103975535168</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>0.02140672782874618</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0.02446483180428135</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.78</v>
+        <v>0.7645259938837921</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.176</v>
+        <v>0.1865443425076453</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04285714285714286</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6142857142857143</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3428571428571429</v>
+        <v>0.3068181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04878048780487805</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01829268292682927</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06707317073170732</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2383177570093458</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009146341463414634</v>
+        <v>0.01168224299065421</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1554878048780488</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="R6">
-        <v>0.05792682926829269</v>
+        <v>0.05841121495327103</v>
       </c>
       <c r="S6">
-        <v>0.3932926829268293</v>
+        <v>0.3995327102803738</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1056338028169014</v>
+        <v>0.1064425770308123</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02112676056338028</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04577464788732395</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1267605633802817</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01408450704225352</v>
+        <v>0.01400560224089636</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1725352112676056</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R7">
-        <v>0.08450704225352113</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S7">
-        <v>0.4295774647887324</v>
+        <v>0.42296918767507</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1025641025641026</v>
+        <v>0.09773539928486293</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02262443438914027</v>
+        <v>0.02264600715137068</v>
       </c>
       <c r="E8">
-        <v>0.00301659125188537</v>
+        <v>0.003575685339690107</v>
       </c>
       <c r="F8">
-        <v>0.06184012066365008</v>
+        <v>0.05721096543504171</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.110105580693816</v>
+        <v>0.1156138259833135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01055806938159879</v>
+        <v>0.01311084624553039</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1704374057315234</v>
+        <v>0.1632896305125149</v>
       </c>
       <c r="R8">
-        <v>0.08446455505279035</v>
+        <v>0.09535160905840286</v>
       </c>
       <c r="S8">
-        <v>0.4343891402714932</v>
+        <v>0.4314660309892729</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1204379562043796</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0145985401459854</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0583941605839416</v>
+        <v>0.06216216216216217</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.135036496350365</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00364963503649635</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.145985401459854</v>
+        <v>0.1540540540540541</v>
       </c>
       <c r="R9">
-        <v>0.0948905109489051</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="S9">
-        <v>0.427007299270073</v>
+        <v>0.4405405405405405</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1027582477014602</v>
+        <v>0.1063917525773196</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02379664683612764</v>
+        <v>0.02268041237113402</v>
       </c>
       <c r="E10">
-        <v>0.001081665765278529</v>
+        <v>0.0008247422680412372</v>
       </c>
       <c r="F10">
-        <v>0.06922660897782586</v>
+        <v>0.07134020618556701</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1270957274202272</v>
+        <v>0.1331958762886598</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01297998918334235</v>
+        <v>0.01278350515463918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2098431584640346</v>
+        <v>0.2078350515463918</v>
       </c>
       <c r="R10">
-        <v>0.09626825310978908</v>
+        <v>0.09072164948453608</v>
       </c>
       <c r="S10">
-        <v>0.3569497025419145</v>
+        <v>0.3542268041237113</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1295843520782396</v>
+        <v>0.1295238095238095</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09046454767726161</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="K11">
-        <v>0.1784841075794621</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="L11">
-        <v>0.589242053789731</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01222493887530562</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.004048582995951417</v>
+        <v>0.003184713375796179</v>
       </c>
       <c r="G12">
-        <v>0.7854251012145749</v>
+        <v>0.7834394904458599</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1578947368421053</v>
+        <v>0.1560509554140127</v>
       </c>
       <c r="K12">
-        <v>0.01214574898785425</v>
+        <v>0.009554140127388535</v>
       </c>
       <c r="L12">
-        <v>0.01214574898785425</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02834008097165992</v>
+        <v>0.02866242038216561</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01666666666666667</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G13">
-        <v>0.7666666666666667</v>
+        <v>0.7341772151898734</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1833333333333333</v>
+        <v>0.2278481012658228</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2233009708737864</v>
+        <v>0.2214111922141119</v>
       </c>
       <c r="I15">
-        <v>0.05177993527508091</v>
+        <v>0.05596107055961071</v>
       </c>
       <c r="J15">
-        <v>0.3527508090614886</v>
+        <v>0.3600973236009732</v>
       </c>
       <c r="K15">
-        <v>0.06796116504854369</v>
+        <v>0.06812652068126521</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009708737864077669</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0970873786407767</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1779935275080906</v>
+        <v>0.1776155717761557</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02090592334494774</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2160278745644599</v>
+        <v>0.1931216931216931</v>
       </c>
       <c r="I16">
-        <v>0.06620209059233449</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J16">
-        <v>0.421602787456446</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="K16">
-        <v>0.08710801393728224</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01742160278745645</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
-        <v>0.006968641114982578</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="O16">
-        <v>0.0627177700348432</v>
+        <v>0.06613756613756613</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1010452961672474</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01579778830963665</v>
+        <v>0.02078239608801956</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1816745655608215</v>
+        <v>0.176039119804401</v>
       </c>
       <c r="I17">
-        <v>0.09004739336492891</v>
+        <v>0.09535452322738386</v>
       </c>
       <c r="J17">
-        <v>0.4186413902053712</v>
+        <v>0.4205378973105134</v>
       </c>
       <c r="K17">
-        <v>0.09162717219589257</v>
+        <v>0.08801955990220049</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02211690363349131</v>
+        <v>0.02322738386308068</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001222493887530562</v>
       </c>
       <c r="O17">
-        <v>0.07266982622432859</v>
+        <v>0.07946210268948656</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1074249605055292</v>
+        <v>0.09535452322738386</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006557377049180328</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.160655737704918</v>
+        <v>0.1700507614213198</v>
       </c>
       <c r="I18">
-        <v>0.1016393442622951</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="J18">
-        <v>0.4163934426229508</v>
+        <v>0.3959390862944163</v>
       </c>
       <c r="K18">
-        <v>0.1081967213114754</v>
+        <v>0.1040609137055838</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01967213114754099</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07540983606557378</v>
+        <v>0.07868020304568528</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1114754098360656</v>
+        <v>0.1116751269035533</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02056698165647582</v>
+        <v>0.01806451612903226</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2062256809338521</v>
+        <v>0.2008602150537634</v>
       </c>
       <c r="I19">
-        <v>0.0839355197331851</v>
+        <v>0.08516129032258064</v>
       </c>
       <c r="J19">
-        <v>0.3796553640911617</v>
+        <v>0.3849462365591398</v>
       </c>
       <c r="K19">
-        <v>0.1067259588660367</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01945525291828794</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0004301075268817204</v>
       </c>
       <c r="O19">
-        <v>0.06670372429127293</v>
+        <v>0.0675268817204301</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1167315175097276</v>
+        <v>0.1161290322580645</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Missouri_B.xlsx
+++ b/team_specific_matrix/Missouri_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2021466905187835</v>
+        <v>0.2016528925619835</v>
       </c>
       <c r="C2">
-        <v>0.5599284436493739</v>
+        <v>0.5586776859504132</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005366726296958855</v>
+        <v>0.006611570247933884</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1538461538461539</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07871198568872988</v>
+        <v>0.07603305785123966</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003058103975535168</v>
+        <v>0.002816901408450704</v>
       </c>
       <c r="C3">
-        <v>0.02140672782874618</v>
+        <v>0.02535211267605634</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02446483180428135</v>
+        <v>0.02253521126760564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7645259938837921</v>
+        <v>0.7633802816901408</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1865443425076453</v>
+        <v>0.1859154929577465</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05681818181818182</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3068181818181818</v>
+        <v>0.2872340425531915</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06074766355140187</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01635514018691589</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06542056074766354</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2383177570093458</v>
+        <v>0.232258064516129</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01168224299065421</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1495327102803738</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="R6">
-        <v>0.05841121495327103</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S6">
-        <v>0.3995327102803738</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1064425770308123</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01680672268907563</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05042016806722689</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1176470588235294</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01400560224089636</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1764705882352941</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="R7">
-        <v>0.09523809523809523</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="S7">
-        <v>0.42296918767507</v>
+        <v>0.417948717948718</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09773539928486293</v>
+        <v>0.09497816593886463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02264600715137068</v>
+        <v>0.0240174672489083</v>
       </c>
       <c r="E8">
-        <v>0.003575685339690107</v>
+        <v>0.003275109170305677</v>
       </c>
       <c r="F8">
-        <v>0.05721096543504171</v>
+        <v>0.05895196506550218</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1156138259833135</v>
+        <v>0.1157205240174673</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01311084624553039</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1632896305125149</v>
+        <v>0.1681222707423581</v>
       </c>
       <c r="R8">
-        <v>0.09535160905840286</v>
+        <v>0.09497816593886463</v>
       </c>
       <c r="S8">
-        <v>0.4314660309892729</v>
+        <v>0.4268558951965066</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1027027027027027</v>
+        <v>0.1023017902813299</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01621621621621622</v>
+        <v>0.01790281329923274</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06216216216216217</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1297297297297297</v>
+        <v>0.1253196930946291</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.002702702702702703</v>
+        <v>0.005115089514066497</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1540540540540541</v>
+        <v>0.1611253196930946</v>
       </c>
       <c r="R9">
-        <v>0.0918918918918919</v>
+        <v>0.09462915601023018</v>
       </c>
       <c r="S9">
-        <v>0.4405405405405405</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1063917525773196</v>
+        <v>0.1078582434514638</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02268041237113402</v>
+        <v>0.02157164869029276</v>
       </c>
       <c r="E10">
-        <v>0.0008247422680412372</v>
+        <v>0.001155624036979969</v>
       </c>
       <c r="F10">
-        <v>0.07134020618556701</v>
+        <v>0.0724191063174114</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1331958762886598</v>
+        <v>0.1332819722650231</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01278350515463918</v>
+        <v>0.01232665639445301</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2078350515463918</v>
+        <v>0.2068567026194145</v>
       </c>
       <c r="R10">
-        <v>0.09072164948453608</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="S10">
-        <v>0.3542268041237113</v>
+        <v>0.3513097072419106</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1295238095238095</v>
+        <v>0.1319073083778966</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09142857142857143</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K11">
-        <v>0.1828571428571429</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.5828571428571429</v>
+        <v>0.5828877005347594</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.0124777183600713</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.003184713375796179</v>
+        <v>0.002932551319648094</v>
       </c>
       <c r="G12">
-        <v>0.7834394904458599</v>
+        <v>0.7800586510263929</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1560509554140127</v>
+        <v>0.1524926686217009</v>
       </c>
       <c r="K12">
-        <v>0.009554140127388535</v>
+        <v>0.008797653958944282</v>
       </c>
       <c r="L12">
-        <v>0.01910828025477707</v>
+        <v>0.02639296187683285</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02866242038216561</v>
+        <v>0.02932551319648094</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01265822784810127</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G13">
-        <v>0.7341772151898734</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2278481012658228</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02531645569620253</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0218978102189781</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2214111922141119</v>
+        <v>0.2217194570135747</v>
       </c>
       <c r="I15">
-        <v>0.05596107055961071</v>
+        <v>0.06108597285067873</v>
       </c>
       <c r="J15">
-        <v>0.3600973236009732</v>
+        <v>0.3642533936651584</v>
       </c>
       <c r="K15">
-        <v>0.06812652068126521</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0072992700729927</v>
+        <v>0.006787330316742082</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08759124087591241</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1776155717761557</v>
+        <v>0.1742081447963801</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02116402116402116</v>
+        <v>0.0194647201946472</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1931216931216931</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="I16">
-        <v>0.07407407407407407</v>
+        <v>0.06812652068126521</v>
       </c>
       <c r="J16">
-        <v>0.4232804232804233</v>
+        <v>0.4160583941605839</v>
       </c>
       <c r="K16">
-        <v>0.08994708994708994</v>
+        <v>0.09245742092457421</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01587301587301587</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="N16">
-        <v>0.005291005291005291</v>
+        <v>0.004866180048661801</v>
       </c>
       <c r="O16">
-        <v>0.06613756613756613</v>
+        <v>0.06812652068126521</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.1094890510948905</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02078239608801956</v>
+        <v>0.02149321266968326</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.176039119804401</v>
+        <v>0.1798642533936652</v>
       </c>
       <c r="I17">
-        <v>0.09535452322738386</v>
+        <v>0.09389140271493213</v>
       </c>
       <c r="J17">
-        <v>0.4205378973105134</v>
+        <v>0.416289592760181</v>
       </c>
       <c r="K17">
-        <v>0.08801955990220049</v>
+        <v>0.08936651583710407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02322738386308068</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="N17">
-        <v>0.001222493887530562</v>
+        <v>0.001131221719457014</v>
       </c>
       <c r="O17">
-        <v>0.07946210268948656</v>
+        <v>0.07918552036199095</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09535452322738386</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01269035532994924</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1700507614213198</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="I18">
-        <v>0.1116751269035533</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J18">
-        <v>0.3959390862944163</v>
+        <v>0.3912037037037037</v>
       </c>
       <c r="K18">
-        <v>0.1040609137055838</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01522842639593909</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07868020304568528</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1116751269035533</v>
+        <v>0.1157407407407407</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01806451612903226</v>
+        <v>0.01695599515542996</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2008602150537634</v>
+        <v>0.2030682276947921</v>
       </c>
       <c r="I19">
-        <v>0.08516129032258064</v>
+        <v>0.0843762616067824</v>
       </c>
       <c r="J19">
-        <v>0.3849462365591398</v>
+        <v>0.3859507468712152</v>
       </c>
       <c r="K19">
-        <v>0.1053763440860215</v>
+        <v>0.1037545417844166</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02150537634408602</v>
+        <v>0.02220427937020589</v>
       </c>
       <c r="N19">
-        <v>0.0004301075268817204</v>
+        <v>0.0004037141703673799</v>
       </c>
       <c r="O19">
-        <v>0.0675268817204301</v>
+        <v>0.06943883730318934</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1161290322580645</v>
+        <v>0.1138473960436011</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Missouri_B.xlsx
+++ b/team_specific_matrix/Missouri_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2016528925619835</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="C2">
-        <v>0.5586776859504132</v>
+        <v>0.5503048780487805</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006611570247933884</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1570247933884298</v>
+        <v>0.1600609756097561</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07603305785123966</v>
+        <v>0.07621951219512195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002816901408450704</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="C3">
-        <v>0.02535211267605634</v>
+        <v>0.02879581151832461</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02253521126760564</v>
+        <v>0.02356020942408377</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7633802816901408</v>
+        <v>0.7643979057591623</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1859154929577465</v>
+        <v>0.1806282722513089</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05319148936170213</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6595744680851063</v>
+        <v>0.66</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2872340425531915</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P5">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05806451612903226</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01720430107526882</v>
+        <v>0.016359918200409</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002044989775051125</v>
       </c>
       <c r="F6">
-        <v>0.06666666666666667</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.232258064516129</v>
+        <v>0.2310838445807771</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01075268817204301</v>
+        <v>0.01022494887525562</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1483870967741935</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.3905930470347648</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1153846153846154</v>
+        <v>0.1113744075829384</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01538461538461539</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05384615384615385</v>
+        <v>0.04976303317535545</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1179487179487179</v>
+        <v>0.1255924170616114</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01282051282051282</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1769230769230769</v>
+        <v>0.1753554502369668</v>
       </c>
       <c r="R7">
-        <v>0.08974358974358974</v>
+        <v>0.08767772511848342</v>
       </c>
       <c r="S7">
-        <v>0.417948717948718</v>
+        <v>0.4194312796208531</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09497816593886463</v>
+        <v>0.1007268951194185</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0240174672489083</v>
+        <v>0.02388369678089304</v>
       </c>
       <c r="E8">
-        <v>0.003275109170305677</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="F8">
-        <v>0.05895196506550218</v>
+        <v>0.06022845275181724</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1157205240174673</v>
+        <v>0.122533748701973</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01310043668122271</v>
+        <v>0.01349948078920041</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1681222707423581</v>
+        <v>0.1630321910695743</v>
       </c>
       <c r="R8">
-        <v>0.09497816593886463</v>
+        <v>0.09138110072689512</v>
       </c>
       <c r="S8">
-        <v>0.4268558951965066</v>
+        <v>0.4215991692627207</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1023017902813299</v>
+        <v>0.09828009828009827</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01790281329923274</v>
+        <v>0.01965601965601966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05882352941176471</v>
+        <v>0.05651105651105651</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1253196930946291</v>
+        <v>0.1326781326781327</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005115089514066497</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1611253196930946</v>
+        <v>0.1597051597051597</v>
       </c>
       <c r="R9">
-        <v>0.09462915601023018</v>
+        <v>0.09582309582309582</v>
       </c>
       <c r="S9">
-        <v>0.4347826086956522</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1078582434514638</v>
+        <v>0.1102592186929536</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02157164869029276</v>
+        <v>0.02154070828769624</v>
       </c>
       <c r="E10">
-        <v>0.001155624036979969</v>
+        <v>0.001095290251916758</v>
       </c>
       <c r="F10">
-        <v>0.0724191063174114</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1332819722650231</v>
+        <v>0.1303395399780942</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01232665639445301</v>
+        <v>0.01387367652427893</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2068567026194145</v>
+        <v>0.2066447608616283</v>
       </c>
       <c r="R10">
-        <v>0.09322033898305085</v>
+        <v>0.0945600584154801</v>
       </c>
       <c r="S10">
-        <v>0.3513097072419106</v>
+        <v>0.3493975903614458</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1319073083778966</v>
+        <v>0.1317957166392092</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.08896210873146623</v>
       </c>
       <c r="K11">
-        <v>0.1818181818181818</v>
+        <v>0.1828665568369028</v>
       </c>
       <c r="L11">
-        <v>0.5828877005347594</v>
+        <v>0.5815485996705108</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0124777183600713</v>
+        <v>0.01482701812191104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.002932551319648094</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="G12">
-        <v>0.7800586510263929</v>
+        <v>0.7859078590785907</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1524926686217009</v>
+        <v>0.1490514905149052</v>
       </c>
       <c r="K12">
-        <v>0.008797653958944282</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="L12">
-        <v>0.02639296187683285</v>
+        <v>0.02710027100271003</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02932551319648094</v>
+        <v>0.02710027100271003</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01162790697674419</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G13">
-        <v>0.7558139534883721</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2093023255813954</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02262443438914027</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2217194570135747</v>
+        <v>0.2158119658119658</v>
       </c>
       <c r="I15">
-        <v>0.06108597285067873</v>
+        <v>0.06623931623931624</v>
       </c>
       <c r="J15">
-        <v>0.3642533936651584</v>
+        <v>0.3632478632478632</v>
       </c>
       <c r="K15">
-        <v>0.06787330316742081</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006787330316742082</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08144796380090498</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1742081447963801</v>
+        <v>0.1816239316239316</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0194647201946472</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2043795620437956</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="I16">
-        <v>0.06812652068126521</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J16">
-        <v>0.4160583941605839</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="K16">
-        <v>0.09245742092457421</v>
+        <v>0.1058558558558559</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0170316301703163</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="N16">
-        <v>0.004866180048661801</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O16">
-        <v>0.06812652068126521</v>
+        <v>0.06531531531531531</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1094890510948905</v>
+        <v>0.1126126126126126</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02149321266968326</v>
+        <v>0.02152852529601722</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1798642533936652</v>
+        <v>0.1786867599569429</v>
       </c>
       <c r="I17">
-        <v>0.09389140271493213</v>
+        <v>0.09364908503767493</v>
       </c>
       <c r="J17">
-        <v>0.416289592760181</v>
+        <v>0.4219590958019376</v>
       </c>
       <c r="K17">
-        <v>0.08936651583710407</v>
+        <v>0.08826695371367062</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02262443438914027</v>
+        <v>0.02152852529601722</v>
       </c>
       <c r="N17">
-        <v>0.001131221719457014</v>
+        <v>0.001076426264800861</v>
       </c>
       <c r="O17">
-        <v>0.07918552036199095</v>
+        <v>0.077502691065662</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09615384615384616</v>
+        <v>0.09580193756727665</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0162037037037037</v>
+        <v>0.01535087719298246</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1759259259259259</v>
+        <v>0.1732456140350877</v>
       </c>
       <c r="I18">
-        <v>0.1041666666666667</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="J18">
-        <v>0.3912037037037037</v>
+        <v>0.3903508771929824</v>
       </c>
       <c r="K18">
-        <v>0.1018518518518518</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0162037037037037</v>
+        <v>0.01535087719298246</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07870370370370371</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1157407407407407</v>
+        <v>0.1206140350877193</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01695599515542996</v>
+        <v>0.01722158438576349</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2030682276947921</v>
+        <v>0.2039800995024875</v>
       </c>
       <c r="I19">
-        <v>0.0843762616067824</v>
+        <v>0.08151549942594719</v>
       </c>
       <c r="J19">
-        <v>0.3859507468712152</v>
+        <v>0.3842326827401454</v>
       </c>
       <c r="K19">
-        <v>0.1037545417844166</v>
+        <v>0.1056257175660161</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02220427937020589</v>
+        <v>0.02219670876387294</v>
       </c>
       <c r="N19">
-        <v>0.0004037141703673799</v>
+        <v>0.0003827018752391887</v>
       </c>
       <c r="O19">
-        <v>0.06943883730318934</v>
+        <v>0.06926903941829315</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1138473960436011</v>
+        <v>0.115575966322235</v>
       </c>
     </row>
   </sheetData>
